--- a/DemoWebShop/TestData/Excel1.xlsx
+++ b/DemoWebShop/TestData/Excel1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rakesh\eclipse-workspace\DemoWebShop\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rakesh.sd\eclipse-workspace\DemoWebShop\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258AF345-34EB-476C-9806-782AE4DBC2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1A4194-AAFB-4E32-A67F-2C8850D9E73A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{BB92694D-811C-4ED0-A350-E7CEF99F9D6F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{BB92694D-811C-4ED0-A350-E7CEF99F9D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Register" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="91">
   <si>
     <t>FirstName</t>
   </si>
@@ -150,9 +150,6 @@
     <t>777</t>
   </si>
   <si>
-    <t>--</t>
-  </si>
-  <si>
     <t>NewsLetterAssertionText1</t>
   </si>
   <si>
@@ -306,112 +303,13 @@
     <t>234</t>
   </si>
   <si>
-    <t>rakeshhhgg@gmail.com</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
     <t>Existing Address</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>krishna07@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -435,16 +333,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FF242424"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF242424"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -490,16 +388,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,14 +405,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -530,7 +427,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -866,135 +763,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB883C72-8864-463E-AB9E-ED7A624867BA}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.33203125"/>
+    <col min="1" max="1" customWidth="true" width="18.42578125"/>
     <col min="2" max="2" customWidth="true" width="16.0"/>
-    <col min="3" max="3" customWidth="true" width="31.33203125"/>
-    <col min="4" max="4" customWidth="true" width="14.33203125"/>
-    <col min="5" max="5" customWidth="true" width="19.5546875"/>
-    <col min="8" max="8" customWidth="true" width="12.88671875"/>
-    <col min="9" max="9" customWidth="true" width="14.33203125"/>
+    <col min="3" max="3" customWidth="true" width="31.42578125"/>
+    <col min="4" max="4" customWidth="true" width="14.42578125"/>
+    <col min="5" max="5" customWidth="true" width="19.42578125"/>
+    <col min="7" max="7" customWidth="true" width="12.85546875"/>
+    <col min="8" max="8" customWidth="true" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="F1" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>81</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="16" t="s">
+      <c r="H2" t="s" s="0">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="E3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>86</v>
+      <c r="G3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>68</v>
+      <c r="C4" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1010,33 +895,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E380F5-FBA0-4878-8F54-8AACAA4C11B5}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.109375"/>
-    <col min="2" max="2" customWidth="true" width="19.88671875"/>
+    <col min="1" max="1" customWidth="true" width="32.140625"/>
+    <col min="2" max="2" customWidth="true" width="19.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>68</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>30</v>
@@ -1044,7 +929,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{AD0F4640-E212-4F17-BC83-F71C5AD84C01}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1D821A20-5BEF-4773-B024-AC75B6BC6893}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1054,73 +939,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{548B1B7A-D329-41D6-8820-D30B0099BDBD}">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="15.5546875"/>
-    <col min="5" max="5" customWidth="true" width="19.109375"/>
-    <col min="6" max="6" customWidth="true" width="14.44140625"/>
-    <col min="7" max="7" customWidth="true" width="18.44140625"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125"/>
+    <col min="5" max="5" customWidth="true" width="19.140625"/>
+    <col min="6" max="6" customWidth="true" width="14.42578125"/>
+    <col min="7" max="7" customWidth="true" width="18.42578125"/>
     <col min="8" max="8" customWidth="true" width="21.0"/>
-    <col min="12" max="12" customWidth="true" width="32.6640625"/>
+    <col min="12" max="12" customWidth="true" width="32.5703125"/>
     <col min="13" max="13" customWidth="true" width="18.0"/>
-    <col min="14" max="14" customWidth="true" width="15.6640625"/>
-    <col min="15" max="15" customWidth="true" width="17.33203125"/>
-    <col min="16" max="16" customWidth="true" width="17.88671875"/>
-    <col min="17" max="17" customWidth="true" width="21.5546875"/>
+    <col min="14" max="14" customWidth="true" width="15.5703125"/>
+    <col min="15" max="15" customWidth="true" width="17.42578125"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875"/>
+    <col min="17" max="17" customWidth="true" width="21.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="L1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="N1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>75</v>
+      <c r="O1" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1130,44 +1015,44 @@
       <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>36</v>
       </c>
       <c r="L2" t="s" s="0">
-        <v>124</v>
+        <v>88</v>
       </c>
       <c r="M2" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>18</v>
       </c>
@@ -1177,43 +1062,43 @@
       <c r="C3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>70</v>
+      <c r="L3" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P3" s="15"/>
+      <c r="N3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1227,114 +1112,113 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437494C1-28AA-45E1-8734-BC886BC3A5DD}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.33203125"/>
-    <col min="2" max="2" customWidth="true" width="26.5546875"/>
-    <col min="3" max="3" customWidth="true" width="19.88671875"/>
-    <col min="4" max="4" customWidth="true" width="26.6640625"/>
-    <col min="5" max="5" customWidth="true" width="32.44140625"/>
-    <col min="6" max="6" customWidth="true" width="26.6640625"/>
-    <col min="7" max="7" customWidth="true" width="20.33203125"/>
-    <col min="8" max="8" customWidth="true" width="17.88671875"/>
-    <col min="9" max="9" customWidth="true" width="26.5546875"/>
-    <col min="10" max="10" customWidth="true" width="26.33203125"/>
-    <col min="11" max="11" customWidth="true" width="18.109375"/>
-    <col min="12" max="12" customWidth="true" width="26.44140625"/>
-    <col min="13" max="13" customWidth="true" width="17.88671875"/>
-    <col min="14" max="14" customWidth="true" width="26.109375"/>
+    <col min="1" max="1" customWidth="true" width="25.42578125"/>
+    <col min="2" max="2" customWidth="true" width="26.42578125"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875"/>
+    <col min="4" max="4" customWidth="true" width="26.5703125"/>
+    <col min="5" max="5" customWidth="true" width="32.42578125"/>
+    <col min="6" max="6" customWidth="true" width="26.5703125"/>
+    <col min="7" max="7" customWidth="true" width="20.42578125"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875"/>
+    <col min="9" max="10" customWidth="true" width="26.42578125"/>
+    <col min="11" max="11" customWidth="true" width="18.140625"/>
+    <col min="12" max="12" customWidth="true" width="26.42578125"/>
+    <col min="13" max="13" customWidth="true" width="17.85546875"/>
+    <col min="14" max="14" customWidth="true" width="26.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="B2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="N2" s="13" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
